--- a/biology/Mycologie/Trichoderma/Trichoderma.xlsx
+++ b/biology/Mycologie/Trichoderma/Trichoderma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichoderma est un genre de champignons (Fungi) ascomycètes de la famille des Hypocreaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trichoderma harzianum
 Trichoderma reesei
@@ -543,10 +557,12 @@
           <t>Fonctions symbiotiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En haute-montagne, dans l'hémisphère nord, Trichoderma viride est souvent associé à la colonisation fongique de surface des racines de semis naturels de Picea engelmannii et d'Abies lasiocarpa (dans l'écotone de l'étage supérieur de la forêt alpine, là où survivent les derniers arbres[1].
-Ces trois champignons forment un mycélium blanc dit « complexe blanc alpin » (incluant aussi Morteriella parvispora qui « feutre » les racines en améliorant leurs échanges avec le sol[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En haute-montagne, dans l'hémisphère nord, Trichoderma viride est souvent associé à la colonisation fongique de surface des racines de semis naturels de Picea engelmannii et d'Abies lasiocarpa (dans l'écotone de l'étage supérieur de la forêt alpine, là où survivent les derniers arbres.
+Ces trois champignons forment un mycélium blanc dit « complexe blanc alpin » (incluant aussi Morteriella parvispora qui « feutre » les racines en améliorant leurs échanges avec le sol.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trichoderma asperellum, Trichoderma gamsi et Trichoderma atroviride sont utilisés en viticulture dans la lutte contre les maladies du bois de la vigne, en tant que biocontrôle[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trichoderma asperellum, Trichoderma gamsi et Trichoderma atroviride sont utilisés en viticulture dans la lutte contre les maladies du bois de la vigne, en tant que biocontrôle.
 </t>
         </is>
       </c>
